--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>8.341826611253333</v>
+        <v>7.673425223617556</v>
       </c>
       <c r="R2">
-        <v>75.07643950128001</v>
+        <v>69.06082701255801</v>
       </c>
       <c r="S2">
-        <v>0.003919786346899604</v>
+        <v>0.003596145075839217</v>
       </c>
       <c r="T2">
-        <v>0.003919786346899603</v>
+        <v>0.003596145075839216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H3">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>8.051575137116</v>
+        <v>6.549430478832667</v>
       </c>
       <c r="R3">
-        <v>72.464176234044</v>
+        <v>58.944874309494</v>
       </c>
       <c r="S3">
-        <v>0.00378339850062668</v>
+        <v>0.00306938576706449</v>
       </c>
       <c r="T3">
-        <v>0.00378339850062668</v>
+        <v>0.003069385767064489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H4">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>1.629442413424</v>
+        <v>1.951199008009556</v>
       </c>
       <c r="R4">
-        <v>14.664981720816</v>
+        <v>17.560791072086</v>
       </c>
       <c r="S4">
-        <v>0.000765667571726104</v>
+        <v>0.0009144279770967694</v>
       </c>
       <c r="T4">
-        <v>0.0007656675717261039</v>
+        <v>0.000914427977096769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H5">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I5">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J5">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>5.154549277752001</v>
+        <v>3.889129004812223</v>
       </c>
       <c r="R5">
-        <v>46.39094349976801</v>
+        <v>35.00216104331</v>
       </c>
       <c r="S5">
-        <v>0.002422099238564467</v>
+        <v>0.00182263744187051</v>
       </c>
       <c r="T5">
-        <v>0.002422099238564466</v>
+        <v>0.001822637441870509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J6">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>622.2842094776845</v>
+        <v>703.7107755296613</v>
       </c>
       <c r="R6">
-        <v>5600.55788529916</v>
+        <v>6333.396979766952</v>
       </c>
       <c r="S6">
-        <v>0.2924085169681266</v>
+        <v>0.3297935363267854</v>
       </c>
       <c r="T6">
-        <v>0.2924085169681265</v>
+        <v>0.3297935363267853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J7">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>600.6320081612937</v>
@@ -883,10 +883,10 @@
         <v>5405.688073451644</v>
       </c>
       <c r="S7">
-        <v>0.2822342461452572</v>
+        <v>0.2814857479672377</v>
       </c>
       <c r="T7">
-        <v>0.2822342461452572</v>
+        <v>0.2814857479672376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J8">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>121.5532678129613</v>
+        <v>178.9396165499852</v>
       </c>
       <c r="R8">
-        <v>1093.979410316652</v>
+        <v>1610.456548949867</v>
       </c>
       <c r="S8">
-        <v>0.05711732715128801</v>
+        <v>0.08385991942010727</v>
       </c>
       <c r="T8">
-        <v>0.05711732715128799</v>
+        <v>0.08385991942010725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J9">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>384.5194550306941</v>
+        <v>356.6623650267439</v>
       </c>
       <c r="R9">
-        <v>3460.675095276246</v>
+        <v>3209.961285240695</v>
       </c>
       <c r="S9">
-        <v>0.1806839413220714</v>
+        <v>0.167149554514512</v>
       </c>
       <c r="T9">
-        <v>0.1806839413220713</v>
+        <v>0.167149554514512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H10">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>129.9040642181022</v>
+        <v>98.95599598042311</v>
       </c>
       <c r="R10">
-        <v>1169.13657796292</v>
+        <v>890.603963823808</v>
       </c>
       <c r="S10">
-        <v>0.06104132836349872</v>
+        <v>0.04637565458701341</v>
       </c>
       <c r="T10">
-        <v>0.0610413283634987</v>
+        <v>0.04637565458701339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H11">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>125.3840894100823</v>
+        <v>84.46103236174933</v>
       </c>
       <c r="R11">
-        <v>1128.456804690741</v>
+        <v>760.1492912557439</v>
       </c>
       <c r="S11">
-        <v>0.05891741277924222</v>
+        <v>0.03958260056971133</v>
       </c>
       <c r="T11">
-        <v>0.0589174127792422</v>
+        <v>0.03958260056971132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H12">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>25.37468132310266</v>
+        <v>25.16253635981511</v>
       </c>
       <c r="R12">
-        <v>228.372131907924</v>
+        <v>226.462827238336</v>
       </c>
       <c r="S12">
-        <v>0.01192344723073573</v>
+        <v>0.01179240412058315</v>
       </c>
       <c r="T12">
-        <v>0.01192344723073573</v>
+        <v>0.01179240412058315</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H13">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>80.26981758277802</v>
+        <v>50.15395640828444</v>
       </c>
       <c r="R13">
-        <v>722.4283582450022</v>
+        <v>451.38560767456</v>
       </c>
       <c r="S13">
-        <v>0.03771842183876575</v>
+        <v>0.02350461470796448</v>
       </c>
       <c r="T13">
-        <v>0.03771842183876574</v>
+        <v>0.02350461470796447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H14">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I14">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J14">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>5.410918746706667</v>
+        <v>5.756231306552111</v>
       </c>
       <c r="R14">
-        <v>48.69826872036</v>
+        <v>51.80608175896901</v>
       </c>
       <c r="S14">
-        <v>0.002542566084856231</v>
+        <v>0.002697653559552119</v>
       </c>
       <c r="T14">
-        <v>0.00254256608485623</v>
+        <v>0.002697653559552119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H15">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I15">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J15">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>5.222647374517</v>
+        <v>4.913064982546334</v>
       </c>
       <c r="R15">
-        <v>47.003826370653</v>
+        <v>44.217584842917</v>
       </c>
       <c r="S15">
-        <v>0.002454098224204997</v>
+        <v>0.002302504283208828</v>
       </c>
       <c r="T15">
-        <v>0.002454098224204997</v>
+        <v>0.002302504283208827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H16">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I16">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J16">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>1.056936437588</v>
+        <v>1.463694828308111</v>
       </c>
       <c r="R16">
-        <v>9.512427938291998</v>
+        <v>13.173253454773</v>
       </c>
       <c r="S16">
-        <v>0.0004966496201214711</v>
+        <v>0.0006859595025635818</v>
       </c>
       <c r="T16">
-        <v>0.000496649620121471</v>
+        <v>0.0006859595025635817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H17">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I17">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J17">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>3.343494011274001</v>
+        <v>2.917435888189444</v>
       </c>
       <c r="R17">
-        <v>30.091446101466</v>
+        <v>26.256922993705</v>
       </c>
       <c r="S17">
-        <v>0.001571092614014824</v>
+        <v>0.001367254178889745</v>
       </c>
       <c r="T17">
-        <v>0.001571092614014823</v>
+        <v>0.001367254178889745</v>
       </c>
     </row>
   </sheetData>
